--- a/mof_net/results/performance_summary.xlsx
+++ b/mof_net/results/performance_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yu-shanchangwork/Documents/CMU_class/10707_adv_deep_learning/final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4E6F6-8B70-9441-A144-5F719968D7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08246144-0B6F-2F43-9918-1F9064ADBD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{0320EAF9-B7DF-F04C-B557-59F7F039FEAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="30">
   <si>
     <t>together/seperte</t>
   </si>
@@ -117,13 +117,22 @@
   </si>
   <si>
     <t>number of feature</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>principle component</t>
+  </si>
+  <si>
+    <t>learning rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +143,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -204,6 +220,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F8800A-1F90-DF4B-B8F2-73BD290FB9A1}">
-  <dimension ref="A3:M22"/>
+  <dimension ref="A3:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,14 +567,15 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="43" customWidth="1"/>
-    <col min="13" max="13" width="107.83203125" customWidth="1"/>
+    <col min="4" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="43" customWidth="1"/>
+    <col min="16" max="16" width="107.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -567,34 +586,43 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -604,29 +632,29 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="J4">
         <v>0.80259999999999998</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.76549999999999996</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.93520000000000003</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -636,30 +664,30 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>500</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>150</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.75939999999999996</v>
       </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
       <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -669,30 +697,30 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>500</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6">
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
         <v>0.66249999999999998</v>
       </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -703,30 +731,31 @@
         <v>13</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>300</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>150</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>100</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7">
         <v>0.64710000000000001</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -739,35 +768,35 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>500</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>150</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.89229999999999998</v>
       </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
       <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -780,33 +809,33 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>500</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9">
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9">
         <v>0.65280000000000005</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -819,152 +848,162 @@
       <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>300</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>150</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
         <v>0.65329999999999999</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
         <v>500</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="9">
         <v>150</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="9">
         <v>100</v>
       </c>
-      <c r="H11">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
         <v>0.93110000000000004</v>
       </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
         <v>500</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="9">
         <v>30</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="9">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="9">
         <v>0.85750000000000004</v>
       </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="9">
         <v>8</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
         <v>300</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="9">
         <v>150</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="9">
         <v>100</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="9">
         <v>0.8508</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -974,9 +1013,9 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -986,32 +1025,32 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>30</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15">
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15">
         <v>0.88239999999999996</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -1022,9 +1061,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1037,32 +1077,32 @@
       <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>500</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>150</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>0.82909999999999995</v>
       </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
       <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1075,32 +1115,32 @@
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>500</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>30</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>10</v>
       </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18">
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18">
         <v>0.69040000000000001</v>
       </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1113,39 +1153,125 @@
       <c r="D19" s="1">
         <v>8</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
         <v>300</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>150</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>100</v>
       </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="1"/>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19">
         <v>0.72450000000000003</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L20" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="1"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>0.01</v>
+      </c>
+      <c r="F20">
+        <v>800</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>0.92</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.01</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>250</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>0.72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
